--- a/ZigbeeApp/source/interface/ZigbeeApp_DUZHOU_20150909_v1.0.xlsx
+++ b/ZigbeeApp/source/interface/ZigbeeApp_DUZHOU_20150909_v1.0.xlsx
@@ -13,13 +13,15 @@
     <sheet name="光照度上报" sheetId="4" r:id="rId4"/>
     <sheet name="温湿度阀值设定" sheetId="5" r:id="rId5"/>
     <sheet name="co2阀值设定" sheetId="6" r:id="rId6"/>
+    <sheet name="视频路径保存" sheetId="7" r:id="rId7"/>
+    <sheet name="控制信息上报" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>告警上报上传接口</t>
   </si>
@@ -27,7 +29,25 @@
     <t>请求类型</t>
   </si>
   <si>
-    <t>restful webservice</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>restful webservice</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(post)</t>
+    </r>
   </si>
   <si>
     <t>URL</t>
@@ -69,7 +89,7 @@
     <t>告警类型（1：co2,2:temprature,3:humiditye,4:water_level）</t>
   </si>
   <si>
-    <t>dataDalue</t>
+    <t>data_value</t>
   </si>
   <si>
     <t>值</t>
@@ -79,7 +99,7 @@
   </si>
   <si>
     <t>{"alertType":"1",
-"dataDalue":"12"
+"data_dalue":"12"
 }</t>
   </si>
   <si>
@@ -148,6 +168,27 @@
   </si>
   <si>
     <t>光照度上报接口</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>restful webservice</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(POST)</t>
+    </r>
   </si>
   <si>
     <t>/mgnt/illuminance/report</t>
@@ -200,6 +241,58 @@
   </si>
   <si>
     <t>{"co2_threshold"："1"
+}</t>
+  </si>
+  <si>
+    <t>视频路径保存接口</t>
+  </si>
+  <si>
+    <t>restful webservice(POST)</t>
+  </si>
+  <si>
+    <t>/mgnt/saveVideo</t>
+  </si>
+  <si>
+    <t>video_url</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>视频路径</t>
+  </si>
+  <si>
+    <t>video_name</t>
+  </si>
+  <si>
+    <t>视频名称</t>
+  </si>
+  <si>
+    <t>{"video_url":"/av"，
+"video_name":"mith"
+}</t>
+  </si>
+  <si>
+    <t>控制信息上报接口</t>
+  </si>
+  <si>
+    <t>/mgnt/lightswitch/report</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>data value</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>{"data_value":"3"
+"type":"1"
 }</t>
   </si>
 </sst>
@@ -247,12 +340,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -271,6 +358,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -428,6 +522,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -443,19 +563,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -495,47 +602,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,7 +657,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,68 +669,80 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -956,11 +1062,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -989,7 +1095,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
@@ -1059,66 +1165,66 @@
       </c>
     </row>
     <row r="6" ht="83" customHeight="1" spans="1:5">
-      <c r="A6" s="25">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="25">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="117.75" customHeight="1" spans="1:5">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1127,48 +1233,48 @@
       <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="25">
+      <c r="A12" s="13">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" ht="126" customHeight="1" spans="1:5">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1197,7 +1303,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1267,66 +1373,66 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="25">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="25">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="117.75" customHeight="1" spans="1:5">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1335,43 +1441,43 @@
       <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="25">
+      <c r="A12" s="13">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" ht="81" customHeight="1" spans="1:5">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1400,7 +1506,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1470,49 +1576,49 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="25">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" customFormat="1" ht="117.75" customHeight="1" spans="1:5">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1521,43 +1627,43 @@
       <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="25">
+      <c r="A11" s="13">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1586,7 +1692,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1613,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1624,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
@@ -1656,49 +1762,49 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="25">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>43</v>
+      <c r="E6" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" customFormat="1" ht="117.75" customHeight="1" spans="1:5">
-      <c r="A8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="A8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1707,43 +1813,43 @@
       <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="25">
+      <c r="A11" s="13">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1770,7 +1876,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1785,7 +1891,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1797,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1808,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
@@ -1840,30 +1946,30 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1872,58 +1978,58 @@
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="25">
+      <c r="A10" s="13">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="25">
+      <c r="A11" s="13">
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="A13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1950,7 +2056,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1965,7 +2071,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1977,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1988,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
@@ -2020,30 +2126,30 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2052,43 +2158,43 @@
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="25">
+      <c r="A10" s="13">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="A12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2106,4 +2212,402 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.2166666666667" customWidth="1"/>
+    <col min="3" max="3" width="8.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="7.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="73.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:5">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:5">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:5">
+      <c r="A7" s="18">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:5">
+      <c r="A8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" customFormat="1" ht="117.75" customHeight="1" spans="1:5">
+      <c r="A9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:5">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:5">
+      <c r="A11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:5">
+      <c r="A13" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" customFormat="1" ht="81" customHeight="1" spans="1:5">
+      <c r="A14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.2166666666667" customWidth="1"/>
+    <col min="3" max="3" width="8.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="7.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="73.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:5">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:5">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:5">
+      <c r="A7" s="18">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:5">
+      <c r="A8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" customFormat="1" ht="117.75" customHeight="1" spans="1:5">
+      <c r="A9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:5">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:5">
+      <c r="A11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:5">
+      <c r="A13" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" customFormat="1" ht="81" customHeight="1" spans="1:5">
+      <c r="A14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ZigbeeApp/source/interface/ZigbeeApp_DUZHOU_20150909_v1.0.xlsx
+++ b/ZigbeeApp/source/interface/ZigbeeApp_DUZHOU_20150909_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13635" tabRatio="986"/>
+    <workbookView windowWidth="28710" windowHeight="13635" tabRatio="986" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="告警上报" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="co2阀值设定" sheetId="6" r:id="rId6"/>
     <sheet name="视频路径保存" sheetId="7" r:id="rId7"/>
     <sheet name="控制信息上报" sheetId="8" r:id="rId8"/>
+    <sheet name="消息说明" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>告警上报上传接口</t>
   </si>
@@ -294,6 +295,30 @@
     <t>{"data_value":"3"
 "type":"1"
 }</t>
+  </si>
+  <si>
+    <t>消息格式</t>
+  </si>
+  <si>
+    <t>equipmentId</t>
+  </si>
+  <si>
+    <t>0:用于控制模式切换，
+1：灯设备1，
+2：灯设备2，
+3：灯设备3，
+4：灯设备4，
+5：二氧化碳设备1，
+6：二氧化碳设备2，
+7：灯设备4，
+8：湿度设备4，</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>1：手动
+2：自动</t>
   </si>
 </sst>
 </file>
@@ -344,14 +369,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -607,31 +632,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1094,7 +1122,7 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1109,27 +1137,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1137,144 +1165,144 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="83" customHeight="1" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" ht="117.75" customHeight="1" spans="1:5">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" ht="126" customHeight="1" spans="1:5">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1317,27 +1345,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1345,139 +1373,139 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" ht="117.75" customHeight="1" spans="1:5">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" ht="81" customHeight="1" spans="1:5">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1520,27 +1548,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" customFormat="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1548,122 +1576,122 @@
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" customFormat="1" ht="117.75" customHeight="1" spans="1:5">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1706,27 +1734,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" customFormat="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1734,122 +1762,122 @@
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" customFormat="1" ht="117.75" customHeight="1" spans="1:5">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1890,27 +1918,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" customFormat="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1918,118 +1946,118 @@
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2070,27 +2098,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" customFormat="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -2098,103 +2126,103 @@
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2234,27 +2262,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" customFormat="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -2262,137 +2290,137 @@
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="18">
+      <c r="A7" s="19">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" customFormat="1" ht="117.75" customHeight="1" spans="1:5">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2432,27 +2460,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" customFormat="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -2460,139 +2488,139 @@
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="18">
+      <c r="A7" s="19">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" customFormat="1" ht="117.75" customHeight="1" spans="1:5">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" customFormat="1" ht="81" customHeight="1" spans="1:5">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2610,4 +2638,49 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="286" customHeight="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="37" customHeight="1" spans="1:2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ZigbeeApp/source/interface/ZigbeeApp_DUZHOU_20150909_v1.0.xlsx
+++ b/ZigbeeApp/source/interface/ZigbeeApp_DUZHOU_20150909_v1.0.xlsx
@@ -308,10 +308,12 @@
 2：灯设备2，
 3：灯设备3，
 4：灯设备4，
-5：二氧化碳设备1，
-6：二氧化碳设备2，
-7：灯设备4，
-8：湿度设备4，</t>
+5：灯设备5,
+6：灯设备6,
+7：二氧化碳设备1，
+8：二氧化碳设备2，
+9：灯设备4，
+10：湿度设备4，</t>
   </si>
   <si>
     <t>status</t>
@@ -326,10 +328,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -369,14 +371,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -632,25 +634,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2646,7 +2648,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
